--- a/somestatisitics.xlsx
+++ b/somestatisitics.xlsx
@@ -360,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D10" sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -387,13 +387,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
-        <v>5.2500000000000003E-3</v>
+        <v>6.0833333333333304E-3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -401,13 +401,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1">
-        <v>5.4166666666666599E-3</v>
+        <v>6.0833333333333304E-3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -415,13 +415,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1">
-        <v>5.1666666666666597E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -429,13 +429,13 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
-        <v>5.4999999999999997E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -446,10 +446,10 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1">
-        <v>5.6666666666666601E-3</v>
+        <v>5.9166666666666604E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -460,10 +460,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1">
-        <v>5.1666666666666597E-3</v>
+        <v>5.9166666666666604E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -488,10 +488,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1">
-        <v>5.1666666666666597E-3</v>
+        <v>5.7499999999999999E-3</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -502,150 +502,10 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1">
         <v>5.7499999999999999E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1">
-        <v>5.1666666666666597E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1">
-        <v>5.9166666666666604E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1">
-        <v>5.1666666666666597E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5.9166666666666604E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1">
-        <v>5.0833333333333303E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1">
-        <v>5.7499999999999999E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1">
-        <v>6.0833333333333304E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>11</v>
-      </c>
-      <c r="D18" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1">
-        <v>6.0833333333333304E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1">
-        <v>6.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
